--- a/project/吴汶航/信呼_行政_测试用例.xlsx
+++ b/project/吴汶航/信呼_行政_测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="328">
   <si>
     <t>模块名称</t>
   </si>
@@ -288,6 +288,543 @@
     <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击图书管理→点击图书借阅→点击“操作”→选择“删除”→删除说明未填→点击取消</t>
   </si>
   <si>
+    <t>行政/固定资产</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→数据输入正确→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→其他数据输入正确，选择状态为：请选择→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→其他数据输入正确，未选择资产来源→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→其他数据输入正确，未输入名称→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→其他数据输入正确，未选择对应分类→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→其他数据输入正确，未选择存放仓库→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击新增→点击关闭</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→双击打印机</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→在搜索框不做输入→点击搜索</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→在搜索框输入‘笔’→点击搜索</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击导出</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击资产分类中的“新增”→输入未有分类→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击资产分类中的“新增”→输入已有分类→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“编辑”→其他不做修改，类名输入任意字符→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“编辑”→其他不做修改，序号输入任意自然数→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“编辑”→其他不做修改，序号输入任意负数→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“删除”→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“删除”→点击取消</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“刷新”</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动”</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动”→五秒内不做任何操作</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动”→点击其他任意分类→点击确认</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动”→点击其他任意分类→点击取消</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动”→点击本身</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击资产分类中的“移动”</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击资产分类中的“移动到顶级”</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动到顶级”→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击任意分类→点击资产分类中的“移动到顶级”→点击取消</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击物品列表→点击资产分类中的“所有资产分类”</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击操作→点击详细</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击详细（新窗口）</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击删除→输入：删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击删除→点击取消</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击领用登记→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击维修登记→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击固定资产→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>行政/车辆管理</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未输入车牌号→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未选择车辆品牌→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未选择车辆类型→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未输入型号→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未输入购买价格→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未选择购买日期→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→其他数据输入正确，未选择状态→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆列表→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→其他数据输入正确，未选择车辆→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→其他数据输入正确，未选择登记类型→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→其他数据输入正确，未选择开始日期→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆信息登记→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未选择使用者→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未选择开始时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未选择结束时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未输入目的地→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未输入路线→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未选择预定车辆→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，未选择驾驶员→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，开始时间大于结束时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→其他数据输入正确，使用人数为负数→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“催办”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“追加说明”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“作废申请”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆预定查询→点击操作→点击“评论”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未选择维修车辆→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未输入维修地点→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未选择驾驶员→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未输入维修原因→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未输入更换部件→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未选择维修时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，未选择维修截止时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，开始时间大于结束时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→其他数据输入正确，维修金额为负数→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“催办”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“追加说明”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“作废申请”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击车辆管理→点击车辆维修→点击操作→点击“评论”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>行政/印章管理</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→其他数据输入正确，未选择印章类型→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→其他数据输入正确，未输入印章名称→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→其他数据输入正确，未选择保管人→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章列表→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击新增→其他数据输入正确，未选择申请印章名称→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击新增→其他数据输入正确，未选择是否外带→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“催办”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“追加说明”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“作废申请”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击印章管理→点击印章申请查询→点击操作→点击“删除”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>行政/财务管理</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→其他数据输入正确，未选择发生日期→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→其他数据输入正确，未选择报销项目→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→其他数据输入正确，未输入金额→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“催办”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“追加说明”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“作废申请”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击费用报销→点击操作→点击“删除”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→正确输入信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未选择收款方式→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未选择发生日期→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未输入出差目的→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未输入出差成果→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未输入金额→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未选择报销项目→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，报销金额为负数→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→未输入任何信息→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→输入之前添加的相同的数据→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击详情</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击详情(新窗口)</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击评论→输入评论→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“+添加提醒设置”→正确输入→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“+添加提醒设置”→其他正确输入，未选择频率设置→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击删除→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“催办”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“追加说明”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“作废申请”→输入说明→点击确定</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击操作→点击“删除”→输入说明→点击确定</t>
+  </si>
+  <si>
     <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击图书管理→点击图书列表→→→</t>
   </si>
   <si>
@@ -454,6 +991,15 @@
   </si>
   <si>
     <t>成功删除</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，未选择维修截止时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，开始时间大于结束时间→点击保存</t>
+  </si>
+  <si>
+    <t>正确输入网址→正确输入用户名、密码→点击登陆→点击“行政”模块→点击财务管理→点击出差报销→点击新增→其他数据输入正确，维修金额为负数→点击保存</t>
   </si>
 </sst>
 </file>
@@ -461,10 +1007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -483,8 +1029,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +1045,20 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -505,31 +1066,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +1082,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -551,7 +1135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,31 +1157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,25 +1167,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -660,55 +1206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,37 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +1248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,6 +1284,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,43 +1374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,22 +1489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,6 +1543,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1017,26 +1576,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,10 +1594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,137 +1606,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1790,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1593,10 +2151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1613,12 +2171,12 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7">
@@ -1629,7 +2187,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -1638,7 +2196,7 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -1649,7 +2207,7 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -1658,7 +2216,7 @@
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>5</v>
       </c>
@@ -1667,7 +2225,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -1676,7 +2234,7 @@
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>7</v>
       </c>
@@ -1685,7 +2243,7 @@
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -1694,7 +2252,7 @@
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>9</v>
       </c>
@@ -1703,7 +2261,7 @@
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -1712,7 +2270,7 @@
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>11</v>
       </c>
@@ -1721,7 +2279,7 @@
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -1730,7 +2288,7 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="7">
         <v>13</v>
       </c>
@@ -1739,7 +2297,7 @@
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -1748,7 +2306,7 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7">
         <v>15</v>
       </c>
@@ -1757,7 +2315,7 @@
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="9">
         <v>16</v>
       </c>
@@ -1766,7 +2324,7 @@
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="7">
         <v>17</v>
       </c>
@@ -1775,7 +2333,7 @@
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -1784,7 +2342,7 @@
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="7">
         <v>19</v>
       </c>
@@ -1793,7 +2351,7 @@
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -1802,7 +2360,7 @@
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>21</v>
       </c>
@@ -1811,7 +2369,7 @@
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -1820,7 +2378,7 @@
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>23</v>
       </c>
@@ -1829,7 +2387,7 @@
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -1838,7 +2396,7 @@
       </c>
     </row>
     <row r="26" ht="43.2" spans="1:3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>25</v>
       </c>
@@ -1847,7 +2405,7 @@
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="9">
         <v>26</v>
       </c>
@@ -1856,7 +2414,7 @@
       </c>
     </row>
     <row r="28" ht="28.8" spans="1:3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="7">
         <v>27</v>
       </c>
@@ -1865,7 +2423,7 @@
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -1874,7 +2432,7 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="7">
         <v>29</v>
       </c>
@@ -1883,7 +2441,7 @@
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="14"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="9">
         <v>30</v>
       </c>
@@ -1892,7 +2450,7 @@
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>31</v>
       </c>
@@ -1901,7 +2459,7 @@
       </c>
     </row>
     <row r="33" ht="43.2" spans="1:3">
-      <c r="A33" s="14"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -1910,7 +2468,7 @@
       </c>
     </row>
     <row r="34" ht="28.8" spans="1:3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="7">
         <v>33</v>
       </c>
@@ -1919,7 +2477,7 @@
       </c>
     </row>
     <row r="35" ht="28.8" spans="1:3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="9">
         <v>34</v>
       </c>
@@ -1928,7 +2486,7 @@
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="7">
         <v>35</v>
       </c>
@@ -1937,7 +2495,7 @@
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:3">
-      <c r="A37" s="14"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="9">
         <v>36</v>
       </c>
@@ -1946,7 +2504,7 @@
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:3">
-      <c r="A38" s="14"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="7">
         <v>37</v>
       </c>
@@ -1955,7 +2513,7 @@
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="9">
         <v>38</v>
       </c>
@@ -1964,7 +2522,7 @@
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="7">
@@ -1975,7 +2533,7 @@
       </c>
     </row>
     <row r="41" ht="28.8" spans="1:3">
-      <c r="A41" s="14"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="9">
         <v>40</v>
       </c>
@@ -1984,7 +2542,7 @@
       </c>
     </row>
     <row r="42" ht="28.8" spans="1:3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="7">
         <v>41</v>
       </c>
@@ -1993,7 +2551,7 @@
       </c>
     </row>
     <row r="43" ht="28.8" spans="1:3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="9">
         <v>42</v>
       </c>
@@ -2002,7 +2560,7 @@
       </c>
     </row>
     <row r="44" ht="28.8" spans="1:3">
-      <c r="A44" s="14"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="7">
         <v>43</v>
       </c>
@@ -2011,7 +2569,7 @@
       </c>
     </row>
     <row r="45" ht="28.8" spans="1:3">
-      <c r="A45" s="14"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="9">
         <v>44</v>
       </c>
@@ -2020,7 +2578,7 @@
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:3">
-      <c r="A46" s="14"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="7">
         <v>45</v>
       </c>
@@ -2029,7 +2587,7 @@
       </c>
     </row>
     <row r="47" ht="43.2" spans="1:3">
-      <c r="A47" s="14"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="9">
         <v>46</v>
       </c>
@@ -2038,7 +2596,7 @@
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:3">
-      <c r="A48" s="14"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="7">
         <v>47</v>
       </c>
@@ -2047,7 +2605,7 @@
       </c>
     </row>
     <row r="49" ht="28.8" spans="1:3">
-      <c r="A49" s="14"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="9">
         <v>48</v>
       </c>
@@ -2056,7 +2614,7 @@
       </c>
     </row>
     <row r="50" ht="28.8" spans="1:3">
-      <c r="A50" s="14"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="7">
         <v>49</v>
       </c>
@@ -2065,7 +2623,7 @@
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:3">
-      <c r="A51" s="14"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="9">
         <v>50</v>
       </c>
@@ -2074,7 +2632,7 @@
       </c>
     </row>
     <row r="52" ht="28.8" spans="1:3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="7">
         <v>51</v>
       </c>
@@ -2083,7 +2641,7 @@
       </c>
     </row>
     <row r="53" ht="28.8" spans="1:3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="9">
         <v>52</v>
       </c>
@@ -2092,7 +2650,7 @@
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:3">
-      <c r="A54" s="14"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="7">
         <v>53</v>
       </c>
@@ -2101,7 +2659,7 @@
       </c>
     </row>
     <row r="55" ht="28.8" spans="1:3">
-      <c r="A55" s="14"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="9">
         <v>54</v>
       </c>
@@ -2110,7 +2668,7 @@
       </c>
     </row>
     <row r="56" ht="28.8" spans="1:3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="7">
         <v>55</v>
       </c>
@@ -2119,7 +2677,7 @@
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="9">
         <v>56</v>
       </c>
@@ -2128,7 +2686,7 @@
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:3">
-      <c r="A58" s="14"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="7">
         <v>57</v>
       </c>
@@ -2137,7 +2695,7 @@
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:3">
-      <c r="A59" s="14"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="9">
         <v>58</v>
       </c>
@@ -2146,7 +2704,7 @@
       </c>
     </row>
     <row r="60" ht="28.8" spans="1:3">
-      <c r="A60" s="14"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="7">
         <v>59</v>
       </c>
@@ -2155,7 +2713,7 @@
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:3">
-      <c r="A61" s="14"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="9">
         <v>60</v>
       </c>
@@ -2164,7 +2722,7 @@
       </c>
     </row>
     <row r="62" ht="28.8" spans="1:3">
-      <c r="A62" s="14"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="7">
         <v>61</v>
       </c>
@@ -2173,7 +2731,7 @@
       </c>
     </row>
     <row r="63" ht="43.2" spans="1:3">
-      <c r="A63" s="14"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="9">
         <v>62</v>
       </c>
@@ -2182,7 +2740,7 @@
       </c>
     </row>
     <row r="64" ht="43.2" spans="1:3">
-      <c r="A64" s="14"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="7">
         <v>63</v>
       </c>
@@ -2191,7 +2749,7 @@
       </c>
     </row>
     <row r="65" ht="43.2" spans="1:3">
-      <c r="A65" s="14"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="9">
         <v>64</v>
       </c>
@@ -2200,7 +2758,7 @@
       </c>
     </row>
     <row r="66" ht="43.2" spans="1:3">
-      <c r="A66" s="14"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="7">
         <v>65</v>
       </c>
@@ -2209,7 +2767,7 @@
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:3">
-      <c r="A67" s="14"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="9">
         <v>66</v>
       </c>
@@ -2218,7 +2776,7 @@
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:3">
-      <c r="A68" s="14"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="7">
         <v>67</v>
       </c>
@@ -2227,7 +2785,7 @@
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:3">
-      <c r="A69" s="14"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="9">
         <v>68</v>
       </c>
@@ -2236,7 +2794,7 @@
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="7">
         <v>69</v>
       </c>
@@ -2245,7 +2803,7 @@
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:3">
-      <c r="A71" s="14"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="9">
         <v>70</v>
       </c>
@@ -2254,7 +2812,7 @@
       </c>
     </row>
     <row r="72" ht="43.2" spans="1:3">
-      <c r="A72" s="14"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="7">
         <v>71</v>
       </c>
@@ -2263,7 +2821,7 @@
       </c>
     </row>
     <row r="73" ht="43.2" spans="1:3">
-      <c r="A73" s="14"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="9">
         <v>72</v>
       </c>
@@ -2272,7 +2830,7 @@
       </c>
     </row>
     <row r="74" ht="28.8" spans="1:3">
-      <c r="A74" s="14"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="7">
         <v>73</v>
       </c>
@@ -2281,7 +2839,7 @@
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:3">
-      <c r="A75" s="14"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="9">
         <v>74</v>
       </c>
@@ -2290,7 +2848,7 @@
       </c>
     </row>
     <row r="76" ht="28.8" spans="1:3">
-      <c r="A76" s="14"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="7">
         <v>75</v>
       </c>
@@ -2299,7 +2857,7 @@
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:3">
-      <c r="A77" s="14"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="9">
         <v>76</v>
       </c>
@@ -2308,7 +2866,7 @@
       </c>
     </row>
     <row r="78" ht="28.8" spans="1:3">
-      <c r="A78" s="14"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="7">
         <v>77</v>
       </c>
@@ -2317,7 +2875,7 @@
       </c>
     </row>
     <row r="79" ht="28.8" spans="1:3">
-      <c r="A79" s="14"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="9">
         <v>78</v>
       </c>
@@ -2326,7 +2884,7 @@
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:3">
-      <c r="A80" s="14"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="7">
         <v>79</v>
       </c>
@@ -2335,7 +2893,7 @@
       </c>
     </row>
     <row r="81" ht="28.8" spans="1:3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="9">
         <v>80</v>
       </c>
@@ -2344,7 +2902,7 @@
       </c>
     </row>
     <row r="82" ht="28.8" spans="1:3">
-      <c r="A82" s="14"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="7">
         <v>81</v>
       </c>
@@ -2353,7 +2911,7 @@
       </c>
     </row>
     <row r="83" ht="43.2" spans="1:3">
-      <c r="A83" s="14"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="9">
         <v>82</v>
       </c>
@@ -2362,7 +2920,7 @@
       </c>
     </row>
     <row r="84" ht="28.8" spans="1:3">
-      <c r="A84" s="14"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="7">
         <v>83</v>
       </c>
@@ -2371,7 +2929,7 @@
       </c>
     </row>
     <row r="85" ht="28.8" spans="1:3">
-      <c r="A85" s="14"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="9">
         <v>84</v>
       </c>
@@ -2380,7 +2938,7 @@
       </c>
     </row>
     <row r="86" ht="28.8" spans="1:3">
-      <c r="A86" s="14"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="7">
         <v>85</v>
       </c>
@@ -2389,7 +2947,7 @@
       </c>
     </row>
     <row r="87" ht="28.8" spans="1:3">
-      <c r="A87" s="15"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="9">
         <v>86</v>
       </c>
@@ -2397,124 +2955,1607 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110"/>
+    <row r="88" ht="28.8" spans="1:3">
+      <c r="A88" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="7">
+        <v>87</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" ht="28.8" spans="1:3">
+      <c r="A89" s="18"/>
+      <c r="B89" s="9">
+        <v>88</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" ht="28.8" spans="1:3">
+      <c r="A90" s="18"/>
+      <c r="B90" s="7">
+        <v>89</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" ht="28.8" spans="1:3">
+      <c r="A91" s="18"/>
+      <c r="B91" s="9">
+        <v>90</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" ht="28.8" spans="1:3">
+      <c r="A92" s="18"/>
+      <c r="B92" s="7">
+        <v>91</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" ht="28.8" spans="1:3">
+      <c r="A93" s="18"/>
+      <c r="B93" s="9">
+        <v>92</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" ht="28.8" spans="1:3">
+      <c r="A94" s="18"/>
+      <c r="B94" s="7">
+        <v>93</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" ht="28.8" spans="1:3">
+      <c r="A95" s="18"/>
+      <c r="B95" s="9">
+        <v>94</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" ht="28.8" spans="1:3">
+      <c r="A96" s="18"/>
+      <c r="B96" s="7">
+        <v>95</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" ht="28.8" spans="1:3">
+      <c r="A97" s="18"/>
+      <c r="B97" s="9">
+        <v>96</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" ht="28.8" spans="1:3">
+      <c r="A98" s="18"/>
+      <c r="B98" s="7">
+        <v>97</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" ht="28.8" spans="1:3">
+      <c r="A99" s="18"/>
+      <c r="B99" s="9">
+        <v>98</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" ht="28.8" spans="1:3">
+      <c r="A100" s="18"/>
+      <c r="B100" s="7">
+        <v>99</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="28.8" spans="1:3">
+      <c r="A101" s="18"/>
+      <c r="B101" s="9">
+        <v>100</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" ht="28.8" spans="1:3">
+      <c r="A102" s="18"/>
+      <c r="B102" s="7">
+        <v>101</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" ht="43.2" spans="1:3">
+      <c r="A103" s="18"/>
+      <c r="B103" s="9">
+        <v>102</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" ht="43.2" spans="1:3">
+      <c r="A104" s="18"/>
+      <c r="B104" s="7">
+        <v>103</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" ht="43.2" spans="1:3">
+      <c r="A105" s="18"/>
+      <c r="B105" s="9">
+        <v>104</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" ht="43.2" spans="1:3">
+      <c r="A106" s="18"/>
+      <c r="B106" s="7">
+        <v>105</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" ht="28.8" spans="1:3">
+      <c r="A107" s="18"/>
+      <c r="B107" s="9">
+        <v>106</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" ht="28.8" spans="1:3">
+      <c r="A108" s="18"/>
+      <c r="B108" s="7">
+        <v>107</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" ht="28.8" spans="1:3">
+      <c r="A109" s="18"/>
+      <c r="B109" s="9">
+        <v>108</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" ht="28.8" spans="1:3">
+      <c r="A110" s="18"/>
+      <c r="B110" s="7">
+        <v>109</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" ht="43.2" spans="1:3">
+      <c r="A111" s="18"/>
+      <c r="B111" s="9">
+        <v>110</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" ht="43.2" spans="1:3">
+      <c r="A112" s="18"/>
+      <c r="B112" s="7">
+        <v>111</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" ht="43.2" spans="1:3">
+      <c r="A113" s="18"/>
+      <c r="B113" s="9">
+        <v>112</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" ht="28.8" spans="1:3">
+      <c r="A114" s="18"/>
+      <c r="B114" s="7">
+        <v>113</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" ht="28.8" spans="1:3">
+      <c r="A115" s="18"/>
+      <c r="B115" s="9">
+        <v>114</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" ht="28.8" spans="1:3">
+      <c r="A116" s="18"/>
+      <c r="B116" s="7">
+        <v>115</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" ht="28.8" spans="1:3">
+      <c r="A117" s="18"/>
+      <c r="B117" s="9">
+        <v>116</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" ht="28.8" spans="1:3">
+      <c r="A118" s="18"/>
+      <c r="B118" s="7">
+        <v>117</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" ht="28.8" spans="1:3">
+      <c r="A119" s="18"/>
+      <c r="B119" s="9">
+        <v>118</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" ht="28.8" spans="1:3">
+      <c r="A120" s="18"/>
+      <c r="B120" s="7">
+        <v>119</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" ht="28.8" spans="1:3">
+      <c r="A121" s="18"/>
+      <c r="B121" s="9">
+        <v>120</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" ht="28.8" spans="1:3">
+      <c r="A122" s="18"/>
+      <c r="B122" s="7">
+        <v>121</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" spans="1:3">
+      <c r="A123" s="18"/>
+      <c r="B123" s="9">
+        <v>122</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" ht="28.8" spans="1:3">
+      <c r="A124" s="18"/>
+      <c r="B124" s="7">
+        <v>123</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" ht="28.8" spans="1:3">
+      <c r="A125" s="18"/>
+      <c r="B125" s="9">
+        <v>124</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" ht="28.8" spans="1:3">
+      <c r="A126" s="18"/>
+      <c r="B126" s="7">
+        <v>125</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" ht="28.8" spans="1:3">
+      <c r="A127" s="18"/>
+      <c r="B127" s="9">
+        <v>126</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" ht="28.8" spans="1:3">
+      <c r="A128" s="18"/>
+      <c r="B128" s="7">
+        <v>127</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" ht="43.2" spans="1:3">
+      <c r="A129" s="18"/>
+      <c r="B129" s="9">
+        <v>128</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" ht="28.8" spans="1:3">
+      <c r="A130" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="7">
+        <v>129</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" ht="28.8" spans="1:3">
+      <c r="A131" s="20"/>
+      <c r="B131" s="9">
+        <v>130</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" ht="28.8" spans="1:3">
+      <c r="A132" s="20"/>
+      <c r="B132" s="7">
+        <v>131</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" ht="28.8" spans="1:3">
+      <c r="A133" s="20"/>
+      <c r="B133" s="9">
+        <v>132</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" ht="28.8" spans="1:3">
+      <c r="A134" s="20"/>
+      <c r="B134" s="7">
+        <v>133</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" ht="28.8" spans="1:3">
+      <c r="A135" s="20"/>
+      <c r="B135" s="9">
+        <v>134</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" ht="28.8" spans="1:3">
+      <c r="A136" s="20"/>
+      <c r="B136" s="7">
+        <v>135</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" ht="28.8" spans="1:3">
+      <c r="A137" s="20"/>
+      <c r="B137" s="9">
+        <v>136</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" ht="28.8" spans="1:3">
+      <c r="A138" s="20"/>
+      <c r="B138" s="7">
+        <v>137</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" ht="28.8" spans="1:3">
+      <c r="A139" s="20"/>
+      <c r="B139" s="9">
+        <v>138</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" ht="28.8" spans="1:3">
+      <c r="A140" s="20"/>
+      <c r="B140" s="7">
+        <v>139</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" ht="28.8" spans="1:3">
+      <c r="A141" s="20"/>
+      <c r="B141" s="9">
+        <v>140</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" ht="28.8" spans="1:3">
+      <c r="A142" s="20"/>
+      <c r="B142" s="7">
+        <v>141</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" ht="28.8" spans="1:3">
+      <c r="A143" s="20"/>
+      <c r="B143" s="9">
+        <v>142</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" ht="43.2" spans="1:3">
+      <c r="A144" s="20"/>
+      <c r="B144" s="7">
+        <v>143</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" ht="28.8" spans="1:3">
+      <c r="A145" s="20"/>
+      <c r="B145" s="9">
+        <v>144</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" ht="28.8" spans="1:3">
+      <c r="A146" s="20"/>
+      <c r="B146" s="7">
+        <v>145</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" ht="28.8" spans="1:3">
+      <c r="A147" s="20"/>
+      <c r="B147" s="9">
+        <v>146</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" ht="28.8" spans="1:3">
+      <c r="A148" s="20"/>
+      <c r="B148" s="7">
+        <v>147</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" ht="28.8" spans="1:3">
+      <c r="A149" s="20"/>
+      <c r="B149" s="9">
+        <v>148</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" ht="28.8" spans="1:3">
+      <c r="A150" s="20"/>
+      <c r="B150" s="7">
+        <v>149</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" ht="28.8" spans="1:3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="9">
+        <v>150</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" ht="28.8" spans="1:3">
+      <c r="A152" s="20"/>
+      <c r="B152" s="7">
+        <v>151</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" ht="28.8" spans="1:3">
+      <c r="A153" s="20"/>
+      <c r="B153" s="9">
+        <v>152</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" ht="28.8" spans="1:3">
+      <c r="A154" s="20"/>
+      <c r="B154" s="7">
+        <v>153</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" ht="28.8" spans="1:3">
+      <c r="A155" s="20"/>
+      <c r="B155" s="9">
+        <v>154</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" ht="43.2" spans="1:3">
+      <c r="A156" s="20"/>
+      <c r="B156" s="7">
+        <v>155</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" ht="28.8" spans="1:3">
+      <c r="A157" s="20"/>
+      <c r="B157" s="9">
+        <v>156</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" ht="28.8" spans="1:3">
+      <c r="A158" s="20"/>
+      <c r="B158" s="7">
+        <v>157</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" ht="28.8" spans="1:3">
+      <c r="A159" s="20"/>
+      <c r="B159" s="9">
+        <v>158</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" ht="28.8" spans="1:3">
+      <c r="A160" s="20"/>
+      <c r="B160" s="7">
+        <v>159</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" ht="28.8" spans="1:3">
+      <c r="A161" s="20"/>
+      <c r="B161" s="9">
+        <v>160</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" ht="28.8" spans="1:3">
+      <c r="A162" s="20"/>
+      <c r="B162" s="7">
+        <v>161</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" ht="28.8" spans="1:3">
+      <c r="A163" s="20"/>
+      <c r="B163" s="9">
+        <v>162</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" ht="28.8" spans="1:3">
+      <c r="A164" s="20"/>
+      <c r="B164" s="7">
+        <v>163</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" ht="28.8" spans="1:3">
+      <c r="A165" s="20"/>
+      <c r="B165" s="9">
+        <v>164</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" ht="43.2" spans="1:3">
+      <c r="A166" s="20"/>
+      <c r="B166" s="7">
+        <v>165</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" ht="28.8" spans="1:3">
+      <c r="A167" s="20"/>
+      <c r="B167" s="9">
+        <v>166</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" ht="28.8" spans="1:3">
+      <c r="A168" s="20"/>
+      <c r="B168" s="7">
+        <v>167</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" ht="28.8" spans="1:3">
+      <c r="A169" s="20"/>
+      <c r="B169" s="9">
+        <v>168</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" ht="28.8" spans="1:3">
+      <c r="A170" s="20"/>
+      <c r="B170" s="7">
+        <v>169</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" ht="28.8" spans="1:3">
+      <c r="A171" s="20"/>
+      <c r="B171" s="9">
+        <v>170</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" ht="28.8" spans="1:3">
+      <c r="A172" s="20"/>
+      <c r="B172" s="7">
+        <v>171</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" ht="28.8" spans="1:3">
+      <c r="A173" s="20"/>
+      <c r="B173" s="9">
+        <v>172</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" ht="43.2" spans="1:3">
+      <c r="A174" s="20"/>
+      <c r="B174" s="7">
+        <v>173</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" ht="28.8" spans="1:3">
+      <c r="A175" s="20"/>
+      <c r="B175" s="9">
+        <v>174</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" ht="28.8" spans="1:3">
+      <c r="A176" s="20"/>
+      <c r="B176" s="7">
+        <v>175</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" ht="28.8" spans="1:3">
+      <c r="A177" s="20"/>
+      <c r="B177" s="9">
+        <v>176</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" ht="28.8" spans="1:3">
+      <c r="A178" s="20"/>
+      <c r="B178" s="7">
+        <v>177</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" ht="28.8" spans="1:3">
+      <c r="A179" s="20"/>
+      <c r="B179" s="9">
+        <v>178</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" ht="28.8" spans="1:3">
+      <c r="A180" s="20"/>
+      <c r="B180" s="7">
+        <v>179</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" ht="28.8" spans="1:3">
+      <c r="A181" s="20"/>
+      <c r="B181" s="9">
+        <v>180</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" ht="28.8" spans="1:3">
+      <c r="A182" s="20"/>
+      <c r="B182" s="7">
+        <v>181</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" ht="28.8" spans="1:3">
+      <c r="A183" s="20"/>
+      <c r="B183" s="9">
+        <v>182</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" ht="28.8" spans="1:3">
+      <c r="A184" s="20"/>
+      <c r="B184" s="7">
+        <v>183</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" ht="28.8" spans="1:3">
+      <c r="A185" s="20"/>
+      <c r="B185" s="9">
+        <v>184</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" ht="28.8" spans="1:3">
+      <c r="A186" s="20"/>
+      <c r="B186" s="7">
+        <v>185</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" ht="28.8" spans="1:3">
+      <c r="A187" s="20"/>
+      <c r="B187" s="9">
+        <v>186</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" ht="43.2" spans="1:3">
+      <c r="A188" s="20"/>
+      <c r="B188" s="7">
+        <v>187</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" ht="28.8" spans="1:3">
+      <c r="A189" s="20"/>
+      <c r="B189" s="9">
+        <v>188</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" ht="28.8" spans="1:3">
+      <c r="A190" s="20"/>
+      <c r="B190" s="7">
+        <v>189</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" ht="28.8" spans="1:3">
+      <c r="A191" s="20"/>
+      <c r="B191" s="9">
+        <v>190</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" ht="28.8" spans="1:3">
+      <c r="A192" s="20"/>
+      <c r="B192" s="7">
+        <v>191</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" ht="28.8" spans="1:3">
+      <c r="A193" s="20"/>
+      <c r="B193" s="9">
+        <v>192</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" ht="28.8" spans="1:3">
+      <c r="A194" s="20"/>
+      <c r="B194" s="7">
+        <v>193</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" ht="28.8" spans="1:3">
+      <c r="A195" s="20"/>
+      <c r="B195" s="9">
+        <v>194</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" ht="43.2" spans="1:3">
+      <c r="A196" s="20"/>
+      <c r="B196" s="7">
+        <v>195</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" ht="28.8" spans="1:3">
+      <c r="A197" s="20"/>
+      <c r="B197" s="9">
+        <v>196</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" ht="28.8" spans="1:3">
+      <c r="A198" s="20"/>
+      <c r="B198" s="7">
+        <v>197</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" ht="28.8" spans="1:3">
+      <c r="A199" s="20"/>
+      <c r="B199" s="9">
+        <v>198</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" ht="28.8" spans="1:3">
+      <c r="A200" s="20"/>
+      <c r="B200" s="7">
+        <v>199</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" ht="28.8" spans="1:3">
+      <c r="A201" s="21"/>
+      <c r="B201" s="9">
+        <v>200</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" ht="28.8" spans="1:3">
+      <c r="A202" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="7">
+        <v>201</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" ht="28.8" spans="1:3">
+      <c r="A203" s="20"/>
+      <c r="B203" s="9">
+        <v>202</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" ht="28.8" spans="1:3">
+      <c r="A204" s="20"/>
+      <c r="B204" s="7">
+        <v>203</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" ht="28.8" spans="1:3">
+      <c r="A205" s="20"/>
+      <c r="B205" s="9">
+        <v>204</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" ht="28.8" spans="1:3">
+      <c r="A206" s="20"/>
+      <c r="B206" s="7">
+        <v>205</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" ht="28.8" spans="1:3">
+      <c r="A207" s="20"/>
+      <c r="B207" s="9">
+        <v>206</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" ht="28.8" spans="1:3">
+      <c r="A208" s="20"/>
+      <c r="B208" s="7">
+        <v>207</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" ht="28.8" spans="1:3">
+      <c r="A209" s="20"/>
+      <c r="B209" s="9">
+        <v>208</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" ht="28.8" spans="1:3">
+      <c r="A210" s="20"/>
+      <c r="B210" s="7">
+        <v>209</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" ht="28.8" spans="1:3">
+      <c r="A211" s="20"/>
+      <c r="B211" s="9">
+        <v>210</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" ht="43.2" spans="1:3">
+      <c r="A212" s="20"/>
+      <c r="B212" s="7">
+        <v>211</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" ht="28.8" spans="1:3">
+      <c r="A213" s="20"/>
+      <c r="B213" s="9">
+        <v>212</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" ht="28.8" spans="1:3">
+      <c r="A214" s="20"/>
+      <c r="B214" s="7">
+        <v>213</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" ht="43.2" spans="1:3">
+      <c r="A215" s="20"/>
+      <c r="B215" s="9">
+        <v>214</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" ht="28.8" spans="1:3">
+      <c r="A216" s="20"/>
+      <c r="B216" s="7">
+        <v>215</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" ht="28.8" spans="1:3">
+      <c r="A217" s="20"/>
+      <c r="B217" s="9">
+        <v>216</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" ht="28.8" spans="1:3">
+      <c r="A218" s="20"/>
+      <c r="B218" s="7">
+        <v>217</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" ht="28.8" spans="1:3">
+      <c r="A219" s="20"/>
+      <c r="B219" s="9">
+        <v>218</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" ht="28.8" spans="1:3">
+      <c r="A220" s="20"/>
+      <c r="B220" s="7">
+        <v>219</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" ht="28.8" spans="1:3">
+      <c r="A221" s="20"/>
+      <c r="B221" s="9">
+        <v>220</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" ht="43.2" spans="1:3">
+      <c r="A222" s="20"/>
+      <c r="B222" s="7">
+        <v>221</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" ht="28.8" spans="1:3">
+      <c r="A223" s="20"/>
+      <c r="B223" s="9">
+        <v>222</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" ht="28.8" spans="1:3">
+      <c r="A224" s="20"/>
+      <c r="B224" s="7">
+        <v>223</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" ht="28.8" spans="1:3">
+      <c r="A225" s="20"/>
+      <c r="B225" s="9">
+        <v>224</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" ht="28.8" spans="1:3">
+      <c r="A226" s="20"/>
+      <c r="B226" s="7">
+        <v>225</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" ht="28.8" spans="1:3">
+      <c r="A227" s="21"/>
+      <c r="B227" s="9">
+        <v>226</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" ht="28.8" spans="1:3">
+      <c r="A228" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="7">
+        <v>227</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" ht="28.8" spans="1:3">
+      <c r="A229" s="20"/>
+      <c r="B229" s="9">
+        <v>228</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" ht="28.8" spans="1:3">
+      <c r="A230" s="20"/>
+      <c r="B230" s="7">
+        <v>229</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" ht="28.8" spans="1:3">
+      <c r="A231" s="20"/>
+      <c r="B231" s="9">
+        <v>230</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" ht="28.8" spans="1:3">
+      <c r="A232" s="20"/>
+      <c r="B232" s="7">
+        <v>231</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" ht="28.8" spans="1:3">
+      <c r="A233" s="20"/>
+      <c r="B233" s="9">
+        <v>232</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" ht="28.8" spans="1:3">
+      <c r="A234" s="20"/>
+      <c r="B234" s="7">
+        <v>233</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" ht="28.8" spans="1:3">
+      <c r="A235" s="20"/>
+      <c r="B235" s="9">
+        <v>234</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" ht="28.8" spans="1:3">
+      <c r="A236" s="20"/>
+      <c r="B236" s="7">
+        <v>235</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" ht="28.8" spans="1:3">
+      <c r="A237" s="20"/>
+      <c r="B237" s="9">
+        <v>236</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" ht="43.2" spans="1:3">
+      <c r="A238" s="20"/>
+      <c r="B238" s="7">
+        <v>237</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" ht="28.8" spans="1:3">
+      <c r="A239" s="20"/>
+      <c r="B239" s="9">
+        <v>238</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" ht="28.8" spans="1:3">
+      <c r="A240" s="20"/>
+      <c r="B240" s="7">
+        <v>239</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" ht="28.8" spans="1:3">
+      <c r="A241" s="20"/>
+      <c r="B241" s="9">
+        <v>240</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" ht="28.8" spans="1:3">
+      <c r="A242" s="20"/>
+      <c r="B242" s="7">
+        <v>241</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" ht="28.8" spans="1:3">
+      <c r="A243" s="20"/>
+      <c r="B243" s="9">
+        <v>242</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" ht="28.8" spans="1:3">
+      <c r="A244" s="20"/>
+      <c r="B244" s="7">
+        <v>243</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" ht="28.8" spans="1:3">
+      <c r="A245" s="20"/>
+      <c r="B245" s="9">
+        <v>244</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" ht="28.8" spans="1:3">
+      <c r="A246" s="20"/>
+      <c r="B246" s="7">
+        <v>245</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" ht="28.8" spans="1:3">
+      <c r="A247" s="20"/>
+      <c r="B247" s="9">
+        <v>246</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" ht="28.8" spans="1:3">
+      <c r="A248" s="20"/>
+      <c r="B248" s="7">
+        <v>247</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" ht="28.8" spans="1:3">
+      <c r="A249" s="20"/>
+      <c r="B249" s="9">
+        <v>248</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" ht="28.8" spans="1:3">
+      <c r="A250" s="20"/>
+      <c r="B250" s="7">
+        <v>249</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" ht="28.8" spans="1:3">
+      <c r="A251" s="20"/>
+      <c r="B251" s="9">
+        <v>250</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" ht="28.8" spans="1:3">
+      <c r="A252" s="20"/>
+      <c r="B252" s="7">
+        <v>251</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" ht="28.8" spans="1:3">
+      <c r="A253" s="20"/>
+      <c r="B253" s="9">
+        <v>252</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" ht="28.8" spans="1:3">
+      <c r="A254" s="20"/>
+      <c r="B254" s="7">
+        <v>253</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" ht="28.8" spans="1:3">
+      <c r="A255" s="20"/>
+      <c r="B255" s="9">
+        <v>254</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" ht="28.8" spans="1:3">
+      <c r="A256" s="20"/>
+      <c r="B256" s="7">
+        <v>255</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" ht="28.8" spans="1:3">
+      <c r="A257" s="20"/>
+      <c r="B257" s="9">
+        <v>256</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" ht="43.2" spans="1:3">
+      <c r="A258" s="20"/>
+      <c r="B258" s="7">
+        <v>257</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" ht="28.8" spans="1:3">
+      <c r="A259" s="20"/>
+      <c r="B259" s="9">
+        <v>258</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" ht="28.8" spans="1:3">
+      <c r="A260" s="20"/>
+      <c r="B260" s="7">
+        <v>259</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" ht="28.8" spans="1:3">
+      <c r="A261" s="20"/>
+      <c r="B261" s="9">
+        <v>260</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" ht="28.8" spans="1:3">
+      <c r="A262" s="20"/>
+      <c r="B262" s="7">
+        <v>261</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="263" ht="28.8" spans="1:3">
+      <c r="A263" s="21"/>
+      <c r="B263" s="9">
+        <v>262</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A39"/>
     <mergeCell ref="A40:A87"/>
+    <mergeCell ref="A88:A129"/>
+    <mergeCell ref="A130:A201"/>
+    <mergeCell ref="A202:A227"/>
+    <mergeCell ref="A228:A263"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2525,10 +4566,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F5:H72"/>
+  <dimension ref="F12:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2536,208 +4577,195 @@
     <col min="7" max="7" width="72.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="28.8" spans="7:7">
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="7:7">
-      <c r="G6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="7:7">
-      <c r="G7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="7:7">
-      <c r="G8" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="7:7">
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="7:7">
-      <c r="G10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="7:7">
-      <c r="G11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="12" ht="28.8" spans="7:7">
       <c r="G12" s="12" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="7:7">
       <c r="G13" s="11" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="7:7">
       <c r="G14" s="12" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="7:7">
       <c r="G15" s="11" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="7:7">
       <c r="G16" s="12" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="7:7">
       <c r="G17" s="11" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="7:7">
       <c r="G18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" ht="43.2" spans="7:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="7:7">
       <c r="G19" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="43.2" spans="7:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="7:7">
       <c r="G20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" ht="43.2" spans="7:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="7:7">
       <c r="G21" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="43.2" spans="7:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="7:7">
       <c r="G22" s="12" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="7:7">
       <c r="G23" s="11" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="7:7">
       <c r="G24" s="12" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="7:7">
       <c r="G25" s="11" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="7:7">
       <c r="G26" s="12" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="7:7">
       <c r="G27" s="11" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="7:7">
       <c r="G28" s="12" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="43.2" spans="7:7">
       <c r="G29" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" ht="28.8" spans="7:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="43.2" spans="7:7">
       <c r="G30" s="12" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="28.8" spans="7:7">
       <c r="G31" s="11" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="28.8" spans="7:7">
       <c r="G32" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" ht="43.2" spans="7:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="7:7">
       <c r="G33" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" ht="43.2" spans="7:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="7:7">
       <c r="G34" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="7:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" ht="43.2" spans="7:7">
       <c r="G35" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="12"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" ht="43.2" spans="7:7">
+      <c r="G36" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" ht="43.2" spans="7:7">
+      <c r="G37" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="7:7">
+      <c r="G38" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" spans="7:7">
+      <c r="G39" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="7:7">
+      <c r="G40" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" ht="43.2" spans="7:7">
+      <c r="G41" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="43.2" spans="7:7">
+      <c r="G42" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="7:7">
+      <c r="G43" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="28.8" spans="7:7">
+      <c r="G44" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="7:7">
+      <c r="G45" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="46" ht="28.8" spans="7:7">
-      <c r="G46" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8">
-      <c r="F51" s="6"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="6"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="6"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="6:8">
-      <c r="F54" s="6"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="6:8">
-      <c r="F55" s="6"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="6"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="6"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="6:8">
-      <c r="F58" s="6"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="G46" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" ht="28.8" spans="7:7">
+      <c r="G47" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="7:7">
+      <c r="G48" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="7:7">
+      <c r="G54" s="16" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="6"/>
@@ -2769,29 +4797,69 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:8">
       <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="6:6">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="6:8">
       <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="6:6">
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="6:8">
       <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="6:6">
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="6:8">
       <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="6:6">
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="6:8">
       <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="6:6">
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="6:8">
       <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="6:6">
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="6:8">
       <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="6:6">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="6:8">
       <c r="F72" s="6"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2803,10 +4871,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230:C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2832,13 +4900,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:5">
@@ -2849,13 +4917,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:5">
@@ -2867,10 +4935,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2882,10 +4950,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:5">
@@ -2897,10 +4965,10 @@
         <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:5">
@@ -2912,10 +4980,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:5">
@@ -2927,10 +4995,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:5">
@@ -2942,10 +5010,10 @@
         <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:5">
@@ -2957,10 +5025,10 @@
         <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:5">
@@ -2972,10 +5040,10 @@
         <v>49</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:5">
@@ -2987,10 +5055,10 @@
         <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:5">
@@ -3002,10 +5070,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:5">
@@ -3017,10 +5085,10 @@
         <v>52</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:5">
@@ -3032,10 +5100,10 @@
         <v>53</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:5">
@@ -3047,10 +5115,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:5">
@@ -3062,10 +5130,10 @@
         <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:5">
@@ -3077,10 +5145,10 @@
         <v>56</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:5">
@@ -3092,10 +5160,10 @@
         <v>57</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:5">
@@ -3107,10 +5175,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:5">
@@ -3122,10 +5190,10 @@
         <v>59</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:5">
@@ -3137,10 +5205,10 @@
         <v>60</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:5">
@@ -3152,10 +5220,10 @@
         <v>61</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:5">
@@ -3167,10 +5235,10 @@
         <v>62</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" ht="57.6" spans="1:5">
@@ -3182,10 +5250,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" ht="43.2" spans="1:5">
@@ -3197,10 +5265,10 @@
         <v>64</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:5">
@@ -3212,10 +5280,10 @@
         <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" ht="43.2" spans="1:5">
@@ -3227,10 +5295,10 @@
         <v>66</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" ht="43.2" spans="1:5">
@@ -3242,10 +5310,10 @@
         <v>67</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:5">
@@ -3257,10 +5325,10 @@
         <v>66</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:5">
@@ -3272,10 +5340,10 @@
         <v>68</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" ht="43.2" spans="1:5">
@@ -3287,10 +5355,10 @@
         <v>69</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" ht="43.2" spans="1:5">
@@ -3302,10 +5370,10 @@
         <v>70</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" ht="43.2" spans="1:5">
@@ -3317,10 +5385,10 @@
         <v>71</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" ht="43.2" spans="1:5">
@@ -3332,10 +5400,10 @@
         <v>72</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" ht="43.2" spans="1:5">
@@ -3347,10 +5415,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:5">
@@ -3362,10 +5430,10 @@
         <v>74</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" ht="43.2" spans="1:5">
@@ -3377,10 +5445,10 @@
         <v>75</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:5">
@@ -3392,10 +5460,10 @@
         <v>76</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>134</v>
+        <v>313</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:5">
@@ -3407,10 +5475,10 @@
         <v>77</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" ht="28.8" spans="1:5">
@@ -3422,10 +5490,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" ht="43.2" spans="1:5">
@@ -3437,10 +5505,10 @@
         <v>79</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" ht="43.2" spans="1:5">
@@ -3452,10 +5520,10 @@
         <v>80</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" ht="28.8" spans="1:5">
@@ -3467,10 +5535,10 @@
         <v>81</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" ht="28.8" spans="1:5">
@@ -3482,10 +5550,10 @@
         <v>82</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>138</v>
+        <v>317</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:5">
@@ -3497,10 +5565,10 @@
         <v>83</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" ht="43.2" spans="1:5">
@@ -3512,10 +5580,10 @@
         <v>84</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" ht="43.2" spans="1:5">
@@ -3527,10 +5595,10 @@
         <v>85</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:5">
@@ -3542,10 +5610,10 @@
         <v>86</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:5">
@@ -3557,10 +5625,10 @@
         <v>87</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" ht="43.2" spans="1:5">
@@ -3572,10 +5640,10 @@
         <v>88</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" ht="43.2" spans="1:5">
@@ -3587,10 +5655,10 @@
         <v>89</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" ht="28.8" spans="1:5">
@@ -4725,6 +6793,164 @@
       <c r="C195" s="11" t="s">
         <v>89</v>
       </c>
+    </row>
+    <row r="215" ht="28.8" spans="3:3">
+      <c r="C215" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="216" ht="43.2" spans="3:3">
+      <c r="C216" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="217" ht="43.2" spans="3:3">
+      <c r="C217" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="218" ht="43.2" spans="3:3">
+      <c r="C218" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="219" ht="43.2" spans="3:3">
+      <c r="C219" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" ht="43.2" spans="3:3">
+      <c r="C220" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="221" ht="43.2" spans="3:3">
+      <c r="C221" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" ht="43.2" spans="3:3">
+      <c r="C222" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" ht="43.2" spans="3:3">
+      <c r="C223" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="224" ht="43.2" spans="3:3">
+      <c r="C224" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="225" ht="43.2" spans="3:3">
+      <c r="C225" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" ht="43.2" spans="3:3">
+      <c r="C226" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" ht="28.8" spans="3:3">
+      <c r="C227" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="228" ht="28.8" spans="3:3">
+      <c r="C228" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230" ht="43.2" spans="3:3">
+      <c r="C230" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="231" ht="43.2" spans="3:3">
+      <c r="C231" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="232" ht="43.2" spans="3:3">
+      <c r="C232" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" ht="28.8" spans="3:3">
+      <c r="C233" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="234" ht="43.2" spans="3:3">
+      <c r="C234" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="235" ht="43.2" spans="3:3">
+      <c r="C235" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" ht="43.2" spans="3:3">
+      <c r="C236" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="237" ht="43.2" spans="3:3">
+      <c r="C237" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="12"/>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="11"/>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="12"/>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="11"/>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="12"/>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="11"/>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="12"/>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245" s="11"/>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="12"/>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="11"/>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" s="12"/>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="11"/>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" s="12"/>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="11"/>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="12"/>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
